--- a/AGR & IND - Jonathans kladder/nrg_bal_2019_agr&ind.xlsx
+++ b/AGR & IND - Jonathans kladder/nrg_bal_2019_agr&ind.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="564" windowWidth="12180" windowHeight="8760" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="624" windowWidth="12180" windowHeight="8700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
   <si>
     <t>Complete energy balances [NRG_BAL_C__custom_2304616]</t>
   </si>
@@ -221,9 +220,6 @@
   </si>
   <si>
     <t>:</t>
-  </si>
-  <si>
-    <t>z</t>
   </si>
   <si>
     <t>Special value</t>
@@ -303,15 +299,32 @@
   </si>
   <si>
     <t xml:space="preserve">Agriculture, forestry and fishing </t>
+  </si>
+  <si>
+    <t>Renewable municipal waste &amp; Renewables and Biofuels</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Solid fossil fuels</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>Manufactured gasses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -385,7 +398,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +436,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -475,13 +506,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -541,17 +583,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -560,9 +597,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,22 +994,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1353,17 +1408,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -1372,7 +1427,7 @@
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
     <col min="12" max="12" width="12.109375" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
@@ -1383,32 +1438,19 @@
     <col min="19" max="19" width="19.88671875" customWidth="1"/>
     <col min="20" max="20" width="13.109375" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="5" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
     <col min="23" max="23" width="19.88671875" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="19.88671875" customWidth="1"/>
-    <col min="30" max="30" width="5" customWidth="1"/>
-    <col min="31" max="31" width="19.88671875" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="11" customWidth="1"/>
-    <col min="34" max="34" width="5" customWidth="1"/>
-    <col min="35" max="35" width="10" customWidth="1"/>
-    <col min="36" max="36" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>4</v>
@@ -1420,49 +1462,52 @@
         <v>4</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>4</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>4</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1470,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -1478,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1494,185 +1539,147 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+    <row r="7" spans="1:22" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="30" t="s">
+      <c r="H8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="30" t="s">
+      <c r="J8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="30" t="s">
+      <c r="L8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="30" t="s">
+      <c r="N8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="30" t="s">
+      <c r="P8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="S8" s="30" t="s">
+      <c r="R8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="U8" s="30" t="s">
+      <c r="T8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="V8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="X8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ8" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="V8" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="O9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="Q9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="T9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="V9" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -1733,107 +1740,107 @@
       <c r="T10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AD10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>80</v>
+      <c r="U10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="36"/>
+    </row>
+    <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="B11" s="15">
         <v>2329926.804</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="14">
+        <v>128697.84699999999</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="15">
+      <c r="F11" s="15">
         <v>137636.19099999999</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="15">
         <v>14511.948</v>
       </c>
-      <c r="G11" s="19">
+      <c r="H11" s="19">
         <v>2799.81</v>
       </c>
-      <c r="H11" s="15">
+      <c r="I11" s="15">
         <v>3086.5129999999999</v>
       </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
       <c r="J11" s="19">
         <v>0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
         <v>79286.168999999994</v>
       </c>
-      <c r="L11" s="15">
+      <c r="M11" s="15">
         <v>25940.548999999999</v>
       </c>
-      <c r="M11" s="19">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="15">
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <f>F11-SUM(G11:N11)</f>
+        <v>12011.20199999999</v>
+      </c>
+      <c r="P11" s="15">
         <v>815408.51300000004</v>
       </c>
-      <c r="P11" s="19">
-        <v>22729</v>
-      </c>
-      <c r="Q11" s="19">
+      <c r="Q11">
+        <v>168217.65299999999</v>
+      </c>
+      <c r="R11" s="19">
         <v>803761.2</v>
       </c>
-      <c r="R11" s="19">
+      <c r="S11" s="19">
         <v>179213</v>
       </c>
-      <c r="S11" s="15">
-        <v>7979.2020000000002</v>
-      </c>
-      <c r="T11" s="20">
-        <f t="shared" ref="T11:T24" si="0">SUM(F11:S11)</f>
-        <v>1954715.9040000001</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ11" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>81</v>
+      <c r="T11" s="18">
+        <v>96992.4</v>
+      </c>
+      <c r="U11" s="20">
+        <f>SUM(G11:T11)+C11</f>
+        <v>2329926.804</v>
+      </c>
+      <c r="V11" s="37">
+        <f>-(B11-U11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="14">
         <v>298073.03499999997</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="15">
+        <v>28433.278999999999</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>600.34400000000005</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
         <v>43.073999999999998</v>
       </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
       <c r="I12" s="18">
         <v>0</v>
       </c>
@@ -1841,65 +1848,67 @@
         <v>0</v>
       </c>
       <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
         <v>429.27</v>
       </c>
-      <c r="L12" s="18">
-        <v>0</v>
-      </c>
       <c r="M12" s="18">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" ref="O12:O26" si="0">F12-SUM(G12:N12)</f>
+        <v>128.00000000000006</v>
+      </c>
+      <c r="P12" s="14">
         <v>86104.111999999994</v>
       </c>
-      <c r="P12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="18">
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12" s="18">
         <v>87739.199999999997</v>
       </c>
-      <c r="R12" s="18">
+      <c r="S12" s="18">
         <v>1410</v>
       </c>
-      <c r="S12" s="18">
-        <v>0</v>
-      </c>
-      <c r="T12" s="20">
-        <f t="shared" si="0"/>
-        <v>175725.65599999999</v>
-      </c>
-      <c r="AD12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ12" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>82</v>
+      <c r="T12" s="19">
+        <v>93782.1</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" ref="U12:U26" si="1">SUM(G12:T12)+C12</f>
+        <v>298073.03499999997</v>
+      </c>
+      <c r="V12" s="37">
+        <f t="shared" ref="V12:V26" si="2">-(B12-U12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="15">
         <v>567567.06900000002</v>
       </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="14">
+        <v>14652.936</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="15">
+      <c r="F13" s="15">
         <v>35945.790999999997</v>
       </c>
-      <c r="F13" s="19">
+      <c r="G13" s="19">
         <v>12737.76</v>
       </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
       <c r="H13" s="19">
         <v>0</v>
       </c>
@@ -1909,908 +1918,952 @@
       <c r="J13" s="19">
         <v>0</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <v>1588.299</v>
       </c>
-      <c r="L13" s="15">
+      <c r="M13" s="15">
         <v>21139.732</v>
       </c>
-      <c r="M13" s="19">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="15">
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="P13" s="15">
         <v>209784.61600000001</v>
       </c>
-      <c r="P13" s="19">
-        <v>1014</v>
-      </c>
-      <c r="Q13" s="19">
+      <c r="Q13">
+        <v>10570.925999999999</v>
+      </c>
+      <c r="R13" s="19">
         <v>189748.8</v>
       </c>
-      <c r="R13" s="19">
+      <c r="S13" s="19">
         <v>105172</v>
       </c>
-      <c r="S13" s="19">
-        <v>0</v>
-      </c>
-      <c r="T13" s="20">
-        <f t="shared" si="0"/>
-        <v>541185.20699999994</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>83</v>
+      <c r="T13" s="18">
+        <v>1692</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="1"/>
+        <v>567567.06900000002</v>
+      </c>
+      <c r="V13" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="14">
         <v>94496.457999999999</v>
       </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="15">
+        <v>1097.598</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="14">
+      <c r="F14" s="14">
         <v>1601.681</v>
       </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
         <v>86.147999999999996</v>
       </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
       <c r="I14" s="18">
         <v>0</v>
       </c>
       <c r="J14" s="18">
         <v>0</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
         <v>472.197</v>
       </c>
-      <c r="L14" s="14">
+      <c r="M14" s="14">
         <v>685.83100000000002</v>
       </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18">
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="0"/>
+        <v>357.50500000000011</v>
+      </c>
+      <c r="P14" s="18">
         <v>35464.18</v>
       </c>
-      <c r="P14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18">
+      <c r="Q14">
+        <v>248</v>
+      </c>
+      <c r="R14" s="18">
         <v>54954</v>
       </c>
-      <c r="R14" s="18">
+      <c r="S14" s="18">
         <v>1131</v>
       </c>
-      <c r="S14" s="14">
-        <v>197.505</v>
-      </c>
-      <c r="T14" s="20">
-        <f t="shared" si="0"/>
-        <v>92990.861000000004</v>
-      </c>
-      <c r="AD14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ14" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>84</v>
+      <c r="T14" s="19">
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <f t="shared" si="1"/>
+        <v>94496.459000000003</v>
+      </c>
+      <c r="V14" s="37">
+        <f t="shared" si="2"/>
+        <v>1.0000000038417056E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="B15" s="15">
         <v>281834.08299999998</v>
       </c>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="14">
+        <v>53875.453000000001</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="15">
+      <c r="F15" s="15">
         <v>16428.066999999999</v>
       </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
         <v>516.88800000000003</v>
       </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
       <c r="I15" s="19">
         <v>0</v>
       </c>
       <c r="J15" s="19">
         <v>0</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
         <v>3176.598</v>
       </c>
-      <c r="L15" s="15">
+      <c r="M15" s="15">
         <v>2339.8939999999998</v>
       </c>
-      <c r="M15" s="19">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="19">
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="0"/>
+        <v>10394.687</v>
+      </c>
+      <c r="P15" s="19">
         <v>105073.03</v>
       </c>
-      <c r="P15" s="19">
-        <v>15218</v>
-      </c>
-      <c r="Q15" s="19">
+      <c r="Q15">
+        <v>60597.334000000003</v>
+      </c>
+      <c r="R15" s="19">
         <v>44971.199999999997</v>
       </c>
-      <c r="R15" s="19">
+      <c r="S15" s="19">
         <v>889</v>
       </c>
-      <c r="S15" s="15">
-        <v>7386.6869999999999</v>
-      </c>
-      <c r="T15" s="20">
-        <f t="shared" si="0"/>
-        <v>179571.29699999999</v>
-      </c>
-      <c r="AD15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ15" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>85</v>
+      <c r="T15" s="18">
+        <v>0</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" si="1"/>
+        <v>281834.08399999997</v>
+      </c>
+      <c r="V15" s="37">
+        <f t="shared" si="2"/>
+        <v>9.9999998928979039E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="B16" s="14">
         <v>120246.702</v>
       </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="19">
+        <v>7161.88</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="14">
+      <c r="F16" s="14">
         <v>1628.5350000000001</v>
       </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
       <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
         <v>215.37</v>
       </c>
-      <c r="H16" s="18">
-        <v>0</v>
-      </c>
       <c r="I16" s="18">
         <v>0</v>
       </c>
       <c r="J16" s="18">
         <v>0</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
         <v>1373.664</v>
       </c>
-      <c r="L16" s="18">
-        <v>0</v>
-      </c>
       <c r="M16" s="18">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="14">
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="0"/>
+        <v>39.500999999999976</v>
+      </c>
+      <c r="P16" s="14">
         <v>36605.161</v>
       </c>
-      <c r="P16" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="18">
+      <c r="Q16">
+        <v>464.92599999999999</v>
+      </c>
+      <c r="R16" s="18">
         <v>61120.800000000003</v>
       </c>
-      <c r="R16" s="18">
+      <c r="S16" s="18">
         <v>12126</v>
       </c>
-      <c r="S16" s="14">
-        <v>39.500999999999998</v>
-      </c>
-      <c r="T16" s="20">
-        <f t="shared" si="0"/>
-        <v>111480.496</v>
-      </c>
-      <c r="AD16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ16" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>86</v>
+      <c r="T16" s="19">
+        <v>1139.4000000000001</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="1"/>
+        <v>120246.702</v>
+      </c>
+      <c r="V16" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="B17" s="15">
         <v>214289.12599999999</v>
       </c>
-      <c r="C17" s="19">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="14">
+        <v>574.64200000000005</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="15">
+      <c r="F17" s="15">
         <v>8575.7720000000008</v>
       </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
         <v>947.62800000000004</v>
       </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
       <c r="I17" s="19">
         <v>0</v>
       </c>
       <c r="J17" s="19">
         <v>0</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <v>7469.2979999999998</v>
       </c>
-      <c r="L17" s="15">
+      <c r="M17" s="15">
         <v>40.343000000000004</v>
       </c>
-      <c r="M17" s="19">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="N17" s="19">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="0"/>
+        <v>118.50300000000061</v>
+      </c>
+      <c r="P17" s="15">
         <v>73810.733999999997</v>
       </c>
-      <c r="P17" s="19">
-        <v>390</v>
-      </c>
-      <c r="Q17" s="19">
+      <c r="Q17">
+        <v>2225.7780000000002</v>
+      </c>
+      <c r="R17" s="19">
         <v>118558.8</v>
       </c>
-      <c r="R17" s="19">
+      <c r="S17" s="19">
         <v>10178</v>
       </c>
-      <c r="S17" s="15">
-        <v>118.503</v>
-      </c>
-      <c r="T17" s="20">
-        <f t="shared" si="0"/>
-        <v>211513.30600000001</v>
-      </c>
-      <c r="AD17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ17" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>87</v>
+      <c r="T17" s="18">
+        <v>365.4</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="1"/>
+        <v>214289.12599999999</v>
+      </c>
+      <c r="V17" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="B18" s="14">
         <v>14600.868</v>
       </c>
-      <c r="C18" s="18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="19">
+        <v>2624.08</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="14">
+      <c r="F18" s="14">
         <v>1194.825</v>
       </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
         <v>129.22200000000001</v>
       </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
       <c r="I18" s="18">
         <v>0</v>
       </c>
       <c r="J18" s="18">
         <v>0</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
         <v>729.75900000000001</v>
       </c>
-      <c r="L18" s="14">
+      <c r="M18" s="14">
         <v>40.343000000000004</v>
       </c>
-      <c r="M18" s="18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14">
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="0"/>
+        <v>295.50100000000009</v>
+      </c>
+      <c r="P18" s="14">
         <v>3917.636</v>
       </c>
-      <c r="P18" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="18">
+      <c r="Q18">
+        <v>229.92599999999999</v>
+      </c>
+      <c r="R18" s="18">
         <v>6440.4</v>
       </c>
-      <c r="R18" s="18">
+      <c r="S18" s="18">
         <v>194</v>
       </c>
-      <c r="S18" s="14">
-        <v>39.500999999999998</v>
-      </c>
-      <c r="T18" s="20">
-        <f t="shared" si="0"/>
-        <v>11490.861000000001</v>
-      </c>
-      <c r="AD18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ18" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>88</v>
+      <c r="T18" s="19">
+        <v>0</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="1"/>
+        <v>14600.867</v>
+      </c>
+      <c r="V18" s="37">
+        <f t="shared" si="2"/>
+        <v>-1.0000000002037268E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="15">
         <v>213476.288</v>
       </c>
-      <c r="C19" s="19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="14">
+        <v>7846.0739999999996</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="15">
         <v>6834.6090000000004</v>
       </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
         <v>258.44400000000002</v>
       </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
       <c r="I19" s="19">
         <v>0</v>
       </c>
       <c r="J19" s="19">
         <v>0</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
         <v>5365.875</v>
       </c>
-      <c r="L19" s="19">
+      <c r="M19" s="19">
         <v>1210.29</v>
       </c>
-      <c r="M19" s="19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
         <v>116593.553</v>
       </c>
-      <c r="P19" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="19">
+      <c r="Q19">
+        <v>3008.8519999999999</v>
+      </c>
+      <c r="R19" s="19">
         <v>67237.2</v>
       </c>
-      <c r="R19" s="19">
+      <c r="S19" s="19">
         <v>11956</v>
       </c>
-      <c r="S19" s="19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="20">
-        <f t="shared" si="0"/>
-        <v>202621.36199999999</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ19" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>89</v>
+      <c r="T19" s="18">
+        <v>0</v>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" si="1"/>
+        <v>213476.28799999997</v>
+      </c>
+      <c r="V19" s="37">
+        <f t="shared" si="2"/>
+        <v>-2.9103830456733704E-11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="B20" s="14">
         <v>223933.81700000001</v>
       </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="19">
+        <v>10776.85</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="14">
+      <c r="F20" s="14">
         <v>1645.181</v>
       </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
         <v>86.147999999999996</v>
       </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
       <c r="I20" s="18">
         <v>0</v>
       </c>
       <c r="J20" s="18">
         <v>0</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
         <v>1116.1020000000001</v>
       </c>
-      <c r="L20" s="18">
+      <c r="M20" s="18">
         <v>403.43</v>
       </c>
-      <c r="M20" s="18">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14">
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="0"/>
+        <v>39.500999999999976</v>
+      </c>
+      <c r="P20" s="14">
         <v>78489.357000000004</v>
       </c>
-      <c r="P20" s="18">
-        <v>6097</v>
-      </c>
-      <c r="Q20" s="18">
+      <c r="Q20">
+        <v>34984.630000000005</v>
+      </c>
+      <c r="R20" s="18">
         <v>71236.800000000003</v>
       </c>
-      <c r="R20" s="18">
+      <c r="S20" s="18">
         <v>26801</v>
       </c>
-      <c r="S20" s="14">
-        <v>39.500999999999998</v>
-      </c>
-      <c r="T20" s="20">
-        <f t="shared" si="0"/>
-        <v>184269.33799999999</v>
-      </c>
-      <c r="AD20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ20" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>90</v>
+      <c r="T20" s="19">
+        <v>0</v>
+      </c>
+      <c r="U20" s="20">
+        <f t="shared" si="1"/>
+        <v>223933.818</v>
+      </c>
+      <c r="V20" s="37">
+        <f t="shared" si="2"/>
+        <v>9.9999998928979039E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="B21" s="15">
         <v>72305.264999999999</v>
       </c>
-      <c r="C21" s="19">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
         <v>641.46799999999996</v>
       </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
         <v>43.073999999999998</v>
       </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
       <c r="I21" s="19">
         <v>0</v>
       </c>
       <c r="J21" s="19">
         <v>0</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
         <v>558.05100000000004</v>
       </c>
-      <c r="L21" s="15">
+      <c r="M21" s="15">
         <v>40.343000000000004</v>
       </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="15">
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="15">
         <v>4556.9449999999997</v>
       </c>
-      <c r="P21" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="19">
+      <c r="Q21">
+        <v>48445.851999999999</v>
+      </c>
+      <c r="R21" s="19">
         <v>16434</v>
       </c>
-      <c r="R21" s="19">
+      <c r="S21" s="19">
         <v>2227</v>
       </c>
-      <c r="S21" s="19">
-        <v>0</v>
-      </c>
-      <c r="T21" s="20">
-        <f t="shared" si="0"/>
-        <v>23869.413</v>
-      </c>
-      <c r="AD21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>91</v>
+      <c r="T21" s="18">
+        <v>0</v>
+      </c>
+      <c r="U21" s="20">
+        <f t="shared" si="1"/>
+        <v>72305.264999999999</v>
+      </c>
+      <c r="V21" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="15">
         <v>17319.823</v>
       </c>
-      <c r="C22" s="19">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="14">
+        <v>180.55199999999999</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="15">
+      <c r="F22" s="15">
         <v>601.125</v>
       </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
         <v>43.073999999999998</v>
       </c>
-      <c r="H22" s="19">
-        <v>0</v>
-      </c>
       <c r="I22" s="19">
         <v>0</v>
       </c>
       <c r="J22" s="19">
         <v>0</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
         <v>558.05100000000004</v>
       </c>
-      <c r="L22" s="19">
-        <v>0</v>
-      </c>
       <c r="M22" s="19">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="15">
+      <c r="N22" s="19">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
         <v>8865.5460000000003</v>
       </c>
-      <c r="P22" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="19">
+      <c r="Q22">
+        <v>123</v>
+      </c>
+      <c r="R22" s="19">
         <v>7005.6</v>
       </c>
-      <c r="R22" s="19">
+      <c r="S22" s="19">
         <v>544</v>
       </c>
-      <c r="S22" s="19">
-        <v>0</v>
-      </c>
-      <c r="T22" s="20">
-        <f t="shared" si="0"/>
-        <v>17016.271000000001</v>
-      </c>
-      <c r="AD22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ22" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>92</v>
+      <c r="T22" s="19">
+        <v>0</v>
+      </c>
+      <c r="U22" s="20">
+        <f t="shared" si="1"/>
+        <v>17319.823</v>
+      </c>
+      <c r="V22" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="B23" s="14">
         <v>102209.42200000001</v>
       </c>
-      <c r="C23" s="18">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="14">
+      <c r="F23" s="14">
         <v>56315.993000000002</v>
       </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
       <c r="G23" s="18">
         <v>0</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
         <v>3086.5129999999999</v>
       </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
       <c r="J23" s="18">
         <v>0</v>
       </c>
       <c r="K23" s="18">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
         <v>53229.48</v>
       </c>
-      <c r="L23" s="18">
-        <v>0</v>
-      </c>
       <c r="M23" s="18">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="18">
+      <c r="N23" s="18">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
         <v>26449.200000000001</v>
       </c>
-      <c r="P23" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="18">
+      <c r="Q23">
+        <v>2099.4290000000001</v>
+      </c>
+      <c r="R23" s="18">
         <v>17344.8</v>
       </c>
-      <c r="R23" s="18">
-        <v>0</v>
-      </c>
       <c r="S23" s="18">
         <v>0</v>
       </c>
-      <c r="T23" s="20">
-        <f t="shared" si="0"/>
-        <v>100109.993</v>
-      </c>
-      <c r="AD23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ23" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>93</v>
+      <c r="T23" s="18">
+        <v>0</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="1"/>
+        <v>102209.42200000001</v>
+      </c>
+      <c r="V23" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="B24" s="14">
         <v>109114.848</v>
       </c>
-      <c r="C24" s="18">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="15">
+        <v>1474.5050000000001</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="18">
+      <c r="F24" s="18">
         <v>5622.8</v>
       </c>
-      <c r="F24" s="14">
+      <c r="G24" s="14">
         <v>1774.1880000000001</v>
       </c>
-      <c r="G24" s="18">
+      <c r="H24" s="18">
         <v>430.74</v>
       </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
       <c r="I24" s="18">
         <v>0</v>
       </c>
       <c r="J24" s="18">
         <v>0</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
         <v>3219.5250000000001</v>
       </c>
-      <c r="L24" s="14">
+      <c r="M24" s="14">
         <v>40.343000000000004</v>
       </c>
-      <c r="M24" s="18">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="14">
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="0"/>
+        <v>158.00400000000081</v>
+      </c>
+      <c r="P24" s="14">
         <v>29694.444</v>
       </c>
-      <c r="P24" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="18">
+      <c r="Q24">
+        <v>4755</v>
+      </c>
+      <c r="R24" s="18">
         <v>60969.599999999999</v>
       </c>
-      <c r="R24" s="18">
+      <c r="S24" s="18">
         <v>6585</v>
       </c>
-      <c r="S24" s="14">
-        <v>158.00399999999999</v>
-      </c>
-      <c r="T24" s="20">
-        <f t="shared" si="0"/>
-        <v>102871.844</v>
-      </c>
-      <c r="AD24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ24" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="AD25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ25" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>94</v>
+      <c r="T24" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="U24" s="20">
+        <f t="shared" si="1"/>
+        <v>109114.849</v>
+      </c>
+      <c r="V24" s="37">
+        <f t="shared" si="2"/>
+        <v>1.0000000038417056E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="19"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="37"/>
+    </row>
+    <row r="26" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="B26" s="15">
         <v>149608.41699999999</v>
       </c>
-      <c r="C26" s="19">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="15">
+      <c r="F26" s="15">
         <v>88423.578999999998</v>
       </c>
-      <c r="F26" s="19">
-        <v>0</v>
-      </c>
       <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
         <v>8830.17</v>
       </c>
-      <c r="H26" s="15">
+      <c r="I26" s="15">
         <v>2367.7359999999999</v>
       </c>
-      <c r="I26" s="19">
-        <v>0</v>
-      </c>
       <c r="J26" s="19">
         <v>0</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
         <v>77225.672999999995</v>
       </c>
-      <c r="L26" s="19">
-        <v>0</v>
-      </c>
       <c r="M26" s="19">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="19">
+      <c r="N26" s="19">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="19">
         <v>10788.3</v>
       </c>
-      <c r="P26" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="19">
+      <c r="Q26">
+        <v>32184.137999999999</v>
+      </c>
+      <c r="R26" s="19">
         <v>18212.400000000001</v>
       </c>
-      <c r="R26" s="19">
-        <v>0</v>
-      </c>
       <c r="S26" s="19">
         <v>0</v>
       </c>
-      <c r="T26" s="20">
-        <f>SUM(F26:S26)</f>
-        <v>117424.27900000001</v>
-      </c>
-      <c r="AD26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ26" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="T26" s="19">
+        <v>0</v>
+      </c>
+      <c r="U26" s="20">
+        <f t="shared" si="1"/>
+        <v>149608.41699999999</v>
+      </c>
+      <c r="V26" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+    </row>
+    <row r="49" spans="2:2" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:AJ8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AGR & IND - Jonathans kladder/nrg_bal_2019_agr&ind.xlsx
+++ b/AGR & IND - Jonathans kladder/nrg_bal_2019_agr&ind.xlsx
@@ -324,7 +324,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -398,7 +398,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,18 +439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +511,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -590,6 +578,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -597,27 +597,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,22 +977,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1411,8 +1394,8 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W13" sqref="W13"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1544,10 +1527,10 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1675,7 +1658,7 @@
       <c r="U9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="35" t="s">
+      <c r="V9" s="29" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1743,10 +1726,10 @@
       <c r="U10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V10" s="36"/>
+      <c r="V10" s="30"/>
     </row>
     <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="15">
@@ -1811,13 +1794,13 @@
         <f>SUM(G11:T11)+C11</f>
         <v>2329926.804</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V11" s="31">
         <f>-(B11-U11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="14">
@@ -1882,13 +1865,13 @@
         <f t="shared" ref="U12:U26" si="1">SUM(G12:T12)+C12</f>
         <v>298073.03499999997</v>
       </c>
-      <c r="V12" s="37">
+      <c r="V12" s="31">
         <f t="shared" ref="V12:V26" si="2">-(B12-U12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="15">
@@ -1953,13 +1936,13 @@
         <f t="shared" si="1"/>
         <v>567567.06900000002</v>
       </c>
-      <c r="V13" s="37">
+      <c r="V13" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="14">
@@ -2024,13 +2007,13 @@
         <f t="shared" si="1"/>
         <v>94496.459000000003</v>
       </c>
-      <c r="V14" s="37">
+      <c r="V14" s="31">
         <f t="shared" si="2"/>
         <v>1.0000000038417056E-3</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="15">
@@ -2095,13 +2078,13 @@
         <f t="shared" si="1"/>
         <v>281834.08399999997</v>
       </c>
-      <c r="V15" s="37">
+      <c r="V15" s="31">
         <f t="shared" si="2"/>
         <v>9.9999998928979039E-4</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="26" t="s">
         <v>84</v>
       </c>
       <c r="B16" s="14">
@@ -2166,13 +2149,13 @@
         <f t="shared" si="1"/>
         <v>120246.702</v>
       </c>
-      <c r="V16" s="37">
+      <c r="V16" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="15">
@@ -2237,13 +2220,13 @@
         <f t="shared" si="1"/>
         <v>214289.12599999999</v>
       </c>
-      <c r="V17" s="37">
+      <c r="V17" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="14">
@@ -2308,13 +2291,13 @@
         <f t="shared" si="1"/>
         <v>14600.867</v>
       </c>
-      <c r="V18" s="37">
+      <c r="V18" s="31">
         <f t="shared" si="2"/>
         <v>-1.0000000002037268E-3</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="15">
@@ -2379,13 +2362,13 @@
         <f t="shared" si="1"/>
         <v>213476.28799999997</v>
       </c>
-      <c r="V19" s="37">
+      <c r="V19" s="31">
         <f t="shared" si="2"/>
         <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="14">
@@ -2450,13 +2433,13 @@
         <f t="shared" si="1"/>
         <v>223933.818</v>
       </c>
-      <c r="V20" s="37">
+      <c r="V20" s="31">
         <f t="shared" si="2"/>
         <v>9.9999998928979039E-4</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="15">
@@ -2521,13 +2504,13 @@
         <f t="shared" si="1"/>
         <v>72305.264999999999</v>
       </c>
-      <c r="V21" s="37">
+      <c r="V21" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="15">
@@ -2592,13 +2575,13 @@
         <f t="shared" si="1"/>
         <v>17319.823</v>
       </c>
-      <c r="V22" s="37">
+      <c r="V22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="14">
@@ -2663,13 +2646,13 @@
         <f t="shared" si="1"/>
         <v>102209.42200000001</v>
       </c>
-      <c r="V23" s="37">
+      <c r="V23" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="14">
@@ -2734,12 +2717,13 @@
         <f t="shared" si="1"/>
         <v>109114.849</v>
       </c>
-      <c r="V24" s="37">
+      <c r="V24" s="31">
         <f t="shared" si="2"/>
         <v>1.0000000038417056E-3</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
       <c r="B25" s="15"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -2756,10 +2740,10 @@
       <c r="O25" s="19"/>
       <c r="T25" s="18"/>
       <c r="U25" s="20"/>
-      <c r="V25" s="37"/>
+      <c r="V25" s="31"/>
     </row>
     <row r="26" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="15">
@@ -2824,7 +2808,7 @@
         <f t="shared" si="1"/>
         <v>149608.41699999999</v>
       </c>
-      <c r="V26" s="37">
+      <c r="V26" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2846,7 +2830,7 @@
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>

--- a/AGR & IND - Jonathans kladder/nrg_bal_2019_agr&ind.xlsx
+++ b/AGR & IND - Jonathans kladder/nrg_bal_2019_agr&ind.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
   <si>
     <t>Complete energy balances [NRG_BAL_C__custom_2304616]</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Manufactured gasses</t>
+  </si>
+  <si>
+    <t>Manufactured Gas</t>
   </si>
 </sst>
 </file>
@@ -590,6 +593,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -597,10 +604,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,22 +980,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1394,8 +1397,8 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U1" sqref="C1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1484,7 +1487,7 @@
         <v>54</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="U1" s="21" t="s">
         <v>39</v>
@@ -1527,10 +1530,10 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1729,7 +1732,7 @@
       <c r="V10" s="30"/>
     </row>
     <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="15">
@@ -2723,7 +2726,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>

--- a/AGR & IND - Jonathans kladder/nrg_bal_2019_agr&ind.xlsx
+++ b/AGR & IND - Jonathans kladder/nrg_bal_2019_agr&ind.xlsx
@@ -1397,8 +1397,8 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" sqref="C1:U1"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1650,10 +1650,10 @@
         <v>94</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>98</v>
@@ -1785,10 +1785,10 @@
         <v>168217.65299999999</v>
       </c>
       <c r="R11" s="19">
+        <v>179213</v>
+      </c>
+      <c r="S11" s="19">
         <v>803761.2</v>
-      </c>
-      <c r="S11" s="19">
-        <v>179213</v>
       </c>
       <c r="T11" s="18">
         <v>96992.4</v>
@@ -1856,10 +1856,10 @@
         <v>4</v>
       </c>
       <c r="R12" s="18">
+        <v>1410</v>
+      </c>
+      <c r="S12" s="18">
         <v>87739.199999999997</v>
-      </c>
-      <c r="S12" s="18">
-        <v>1410</v>
       </c>
       <c r="T12" s="19">
         <v>93782.1</v>
@@ -1927,21 +1927,21 @@
         <v>10570.925999999999</v>
       </c>
       <c r="R13" s="19">
+        <v>105172</v>
+      </c>
+      <c r="S13" s="19">
         <v>189748.8</v>
-      </c>
-      <c r="S13" s="19">
-        <v>105172</v>
       </c>
       <c r="T13" s="18">
         <v>1692</v>
       </c>
       <c r="U13" s="20">
         <f t="shared" si="1"/>
-        <v>567567.06900000002</v>
+        <v>567567.0689999999</v>
       </c>
       <c r="V13" s="31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.1641532182693481E-10</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
@@ -1998,10 +1998,10 @@
         <v>248</v>
       </c>
       <c r="R14" s="18">
+        <v>1131</v>
+      </c>
+      <c r="S14" s="18">
         <v>54954</v>
-      </c>
-      <c r="S14" s="18">
-        <v>1131</v>
       </c>
       <c r="T14" s="19">
         <v>0</v>
@@ -2069,10 +2069,10 @@
         <v>60597.334000000003</v>
       </c>
       <c r="R15" s="19">
+        <v>889</v>
+      </c>
+      <c r="S15" s="19">
         <v>44971.199999999997</v>
-      </c>
-      <c r="S15" s="19">
-        <v>889</v>
       </c>
       <c r="T15" s="18">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>464.92599999999999</v>
       </c>
       <c r="R16" s="18">
+        <v>12126</v>
+      </c>
+      <c r="S16" s="18">
         <v>61120.800000000003</v>
-      </c>
-      <c r="S16" s="18">
-        <v>12126</v>
       </c>
       <c r="T16" s="19">
         <v>1139.4000000000001</v>
@@ -2211,10 +2211,10 @@
         <v>2225.7780000000002</v>
       </c>
       <c r="R17" s="19">
+        <v>10178</v>
+      </c>
+      <c r="S17" s="19">
         <v>118558.8</v>
-      </c>
-      <c r="S17" s="19">
-        <v>10178</v>
       </c>
       <c r="T17" s="18">
         <v>365.4</v>
@@ -2282,10 +2282,10 @@
         <v>229.92599999999999</v>
       </c>
       <c r="R18" s="18">
+        <v>194</v>
+      </c>
+      <c r="S18" s="18">
         <v>6440.4</v>
-      </c>
-      <c r="S18" s="18">
-        <v>194</v>
       </c>
       <c r="T18" s="19">
         <v>0</v>
@@ -2353,10 +2353,10 @@
         <v>3008.8519999999999</v>
       </c>
       <c r="R19" s="19">
+        <v>11956</v>
+      </c>
+      <c r="S19" s="19">
         <v>67237.2</v>
-      </c>
-      <c r="S19" s="19">
-        <v>11956</v>
       </c>
       <c r="T19" s="18">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>34984.630000000005</v>
       </c>
       <c r="R20" s="18">
+        <v>26801</v>
+      </c>
+      <c r="S20" s="18">
         <v>71236.800000000003</v>
-      </c>
-      <c r="S20" s="18">
-        <v>26801</v>
       </c>
       <c r="T20" s="19">
         <v>0</v>
@@ -2495,10 +2495,10 @@
         <v>48445.851999999999</v>
       </c>
       <c r="R21" s="19">
+        <v>2227</v>
+      </c>
+      <c r="S21" s="19">
         <v>16434</v>
-      </c>
-      <c r="S21" s="19">
-        <v>2227</v>
       </c>
       <c r="T21" s="18">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>123</v>
       </c>
       <c r="R22" s="19">
+        <v>544</v>
+      </c>
+      <c r="S22" s="19">
         <v>7005.6</v>
-      </c>
-      <c r="S22" s="19">
-        <v>544</v>
       </c>
       <c r="T22" s="19">
         <v>0</v>
@@ -2637,10 +2637,10 @@
         <v>2099.4290000000001</v>
       </c>
       <c r="R23" s="18">
+        <v>0</v>
+      </c>
+      <c r="S23" s="18">
         <v>17344.8</v>
-      </c>
-      <c r="S23" s="18">
-        <v>0</v>
       </c>
       <c r="T23" s="18">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>4755</v>
       </c>
       <c r="R24" s="18">
+        <v>6585</v>
+      </c>
+      <c r="S24" s="18">
         <v>60969.599999999999</v>
-      </c>
-      <c r="S24" s="18">
-        <v>6585</v>
       </c>
       <c r="T24" s="19">
         <v>13.5</v>
@@ -2799,10 +2799,10 @@
         <v>32184.137999999999</v>
       </c>
       <c r="R26" s="19">
+        <v>0</v>
+      </c>
+      <c r="S26" s="19">
         <v>18212.400000000001</v>
-      </c>
-      <c r="S26" s="19">
-        <v>0</v>
       </c>
       <c r="T26" s="19">
         <v>0</v>
